--- a/biology/Médecine/Muscle_long_du_cou/Muscle_long_du_cou.xlsx
+++ b/biology/Médecine/Muscle_long_du_cou/Muscle_long_du_cou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long du cou, appartient au groupe profond des muscles antérieurs du cou. C'est un des muscles prévertébraux du cou.
 Il est situé le long du rachis cervical entre C1 et T3.
@@ -516,22 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insertions vertébrales
-Processus antérieur de l’atlas.
-Trajet
-Faisceau oblique supérieur
-Ce faisceau se dirige en bas et en dehors.
-Il se termine sur les tubercules antérieurs des processus transverse de C3, C4 et C5.
-Faisceau oblique inférieur
-Ce faisceau s'insère sur les faces latérales des corps de T2 et T3 et sur le disque intervertébral correspondant.
-Il se dirige en haut et en dehors.
-Il se termine sur les tubercules antérieurs des processus transverse de C5, C6 et C7.
-Faisceau longitudinal
-Ce faisceau s'insère sur la partie latérale des faces antérieures de C2,C3 et C4.
-Il se dirige verticalement en suivant la courbure du rachis (concavité postérieure).
-Il se termine sur les faces latérales des corps de C5 à T3.
-Insertion thoracique
-Face latérale des corps de T3.
+          <t>Insertions vertébrales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Processus antérieur de l’atlas.
 </t>
         </is>
       </c>
@@ -557,12 +560,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est innervé par le plexus cervical par les branches cervicales de C1 à C8.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Faisceau oblique supérieur</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce faisceau se dirige en bas et en dehors.
+Il se termine sur les tubercules antérieurs des processus transverse de C3, C4 et C5.
 </t>
         </is>
       </c>
@@ -588,10 +602,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vascularisation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Faisceau oblique inférieur</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce faisceau s'insère sur les faces latérales des corps de T2 et T3 et sur le disque intervertébral correspondant.
+Il se dirige en haut et en dehors.
+Il se termine sur les tubercules antérieurs des processus transverse de C5, C6 et C7.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -614,10 +645,153 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Faisceau longitudinal</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce faisceau s'insère sur la partie latérale des faces antérieures de C2,C3 et C4.
+Il se dirige verticalement en suivant la courbure du rachis (concavité postérieure).
+Il se termine sur les faces latérales des corps de C5 à T3.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_long_du_cou</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_long_du_cou</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Insertion thoracique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Face latérale des corps de T3.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_long_du_cou</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_long_du_cou</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par le plexus cervical par les branches cervicales de C1 à C8.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscle_long_du_cou</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_long_du_cou</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muscle_long_du_cou</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_long_du_cou</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Par contraction bilatérale, ils provoquent une flexion du rachis cervical.
 Par contraction unilatérale, il est fléchisseur et inclinateur homolatéral du rachis cervical.
